--- a/biology/Zoologie/Chiridota/Chiridota.xlsx
+++ b/biology/Zoologie/Chiridota/Chiridota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiridota est un genre d'holothuries (concombre de mer) de la famille des Chiridotidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (9 juillet 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 juillet 2014) :
 Chiridota albatrossii Edwards, 1907 -- Pacifique nord-est
 Chiridota aponocrita Clark, 1920 -- Atlantique nord-est
 Chiridota carnleyensis Mortensen, 1925 -- Nouvelle-Zélande
@@ -551,13 +565,48 @@
 			Chiridota heheva, une holothurie abyssale.
 			Chiridota rotifera
 			Une Chiridota (possiblement C. rigida) observée dans son environnement naturel à la Réunion.
-Espèces fossiles
-Selon Fossilworks, il y a trois espèces fossiles du Carbonifère du Royaume-Uni et de l'Éocène de la France:
-†Cheirodota traquairii Etheridge, 1881[4] (syn. Protocaudina traquairii)
-†Chiridota atava Waagen, 1867[5]
-†Chirodota vetusa Schwager, 1865[6]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chiridota</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chiridota</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Fossilworks, il y a trois espèces fossiles du Carbonifère du Royaume-Uni et de l'Éocène de la France:
+†Cheirodota traquairii Etheridge, 1881 (syn. Protocaudina traquairii)
+†Chiridota atava Waagen, 1867
+†Chirodota vetusa Schwager, 1865
 Une autre espèce fossile est :
-†Chiridota elegans Malagoli, 1888 (syn. †Chirodota elegans)[7] (Pliocène)</t>
+†Chiridota elegans Malagoli, 1888 (syn. †Chirodota elegans) (Pliocène)</t>
         </is>
       </c>
     </row>
